--- a/市民化成本.xlsx
+++ b/市民化成本.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A16A525-5B20-41F1-8983-BC866D153D75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{762AAFF4-9A38-466B-8F95-0A377D776FC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16160" windowHeight="8510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>作者</t>
   </si>
@@ -52,130 +52,143 @@
     <t>云南省</t>
   </si>
   <si>
+    <t>个体、总体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小敏、涂建军(2016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人成本、公共成本、企业成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活成本、住房成本、自我保障成本、基础设施成本、社会保障成本、保障性住房成本、 教育支出成本、生态环境成本、社保成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东、中、西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈怡男(2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人成本、企业成本、公共成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活成本、住房成本、社会保障成本、智力成本、就业培训成本、社会保障成本、基础设施建设成本、随迁子女教育成本、社会保障与就业成本、住房保障成本、管理成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单菁菁(2015)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共成本、个人成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇建设维护成本、公共服务管理成本、社会保障成本、随迁子女义务教育成本、保障性住房成本、生活成本、住房成本、自我保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眭海霞、陈俊江(2015)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保障住房成本、教育培训成本、社会保障成本、基础设施建设增加成本和私人增加的生活成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部成本、私人成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义务教育成本、基本生活成本、教育娱乐文化成本、非必需商品和服务成本、子女教育成本、放弃土地成本、社会交往成本、工资歧视成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝州、郏县、叶县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾东东、杜海峰(2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会保障成本、生活成本、子女义务教育成本、住房成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移成本、生活成本、就业成本、住房成本、城市融入成本、子女教育成本、随迁子女教育成本、社会保障成本、保障性住房成本、就业培训成本、城市基础设施和社会设施投资、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人成本、公共成本</t>
+  </si>
+  <si>
+    <t>个人成本、公共成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大、中、小型城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳力胜（2013）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张继良、马洪福(2015)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人成本、公共成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>徐红芬(2013)</t>
-  </si>
-  <si>
-    <t>私人成本、公共成本</t>
-  </si>
-  <si>
-    <t>社会保障成本、 城镇公共管理成本、城镇基础设施建设成本、随迁子女教育成本、保障性住房成本、个人住房成本、个人保险支出成本、城市生活成本、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个体、总体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>郑州、洛阳、鹤壁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会保障成本、城镇公共管理成本、城镇基础设施建设成本、随迁子女教育成本、保障性住房成本、个人住房成本、保险支出成本、城市生活成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设施建设成本、社会保障成本、随迁子女教育成本、个人生活成本、个人住房成本、个人机会成本</t>
   </si>
   <si>
     <t>刘美月、李开宇(2016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人成本、公共成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础设施建设成本、社会保障成本、随迁子女教育成本、个人生活成本、个人住房成本、个人机会成本、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西安市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李小敏、涂建军(2016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人成本、公共成本、企业成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活成本、住房成本、自我保障成本、基础设施成本、社会保障成本、保障性住房成本、 教育支出成本、生态环境成本、社保成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东、中、西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈怡男(2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私人成本、企业成本、公共成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活成本、住房成本、社会保障成本、智力成本、就业培训成本、社会保障成本、基础设施建设成本、随迁子女教育成本、社会保障与就业成本、住房保障成本、管理成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单菁菁(2015)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共成本、个人成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇建设维护成本、公共服务管理成本、社会保障成本、随迁子女义务教育成本、保障性住房成本、生活成本、住房成本、自我保障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眭海霞、陈俊江(2015)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保障住房成本、教育培训成本、社会保障成本、基础设施建设增加成本和私人增加的生活成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部成本、私人成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>义务教育成本、基本生活成本、教育娱乐文化成本、非必需商品和服务成本、子女教育成本、放弃土地成本、社会交往成本、工资歧视成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汝州、郏县、叶县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾东东、杜海峰(2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张继良、马洪福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会保障成本、生活成本、子女义务教育成本、住房成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -228,29 +241,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -606,197 +613,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/市民化成本.xlsx
+++ b/市民化成本.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{762AAFF4-9A38-466B-8F95-0A377D776FC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D8324CE5-AEF7-4C69-934C-BD53D6DBD608}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16160" windowHeight="8510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>作者</t>
   </si>
@@ -189,6 +189,74 @@
   </si>
   <si>
     <t>西安市</t>
+  </si>
+  <si>
+    <t>成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设施成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会保障和就业成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随迁子女教育成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人住房成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人生活成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人机会成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共成本+个人成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -241,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +328,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -275,6 +352,1463 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>农民工市民化各项成本占比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基础设施成本</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$16:$H$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$16:$D$17,Sheet1!$F$16:$F$17,Sheet1!$H$16:$H$17)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$18:$H$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$18,Sheet1!$F$18,Sheet1!$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.413307764394077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.310434566456351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.431291544365067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6473-485D-A16B-EA777EBC300A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>社会保障和就业成本</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$16:$H$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$16:$D$17,Sheet1!$F$16:$F$17,Sheet1!$H$16:$H$17)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$19:$H$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$19,Sheet1!$F$19,Sheet1!$H$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.581213291769485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73679704464786511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52279526110066565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6473-485D-A16B-EA777EBC300A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>随迁子女教育成本</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$16:$H$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$16:$D$17,Sheet1!$F$16:$F$17,Sheet1!$H$16:$H$17)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$20:$H$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$20,Sheet1!$F$20,Sheet1!$H$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.2274990527370271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3873347787790582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.166918462297099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6473-485D-A16B-EA777EBC300A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>个人住房成本</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$16:$H$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$16:$D$17,Sheet1!$F$16:$F$17,Sheet1!$H$16:$H$17)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$21:$H$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$21,Sheet1!$F$21,Sheet1!$H$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32.747743211129254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.341553134158064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.399839373003495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6473-485D-A16B-EA777EBC300A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>个人生活成本</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$16:$H$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$16:$D$17,Sheet1!$F$16:$F$17,Sheet1!$H$16:$H$17)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$22:$H$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$22,Sheet1!$F$22,Sheet1!$H$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.6405481029132627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9420220164878668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.726729091352615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6473-485D-A16B-EA777EBC300A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>个人机会成本</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$16:$H$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$16:$D$17,Sheet1!$F$16:$F$17,Sheet1!$H$16:$H$17)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>占比(%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$23:$H$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$23,Sheet1!$F$23,Sheet1!$H$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.3896885770569076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2818584594707767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7524262678810549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6473-485D-A16B-EA777EBC300A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="454406008"/>
+        <c:axId val="454402728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>公共成本+个人成本</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$C$16:$H$17</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$D$16:$D$17,Sheet1!$F$16:$F$17,Sheet1!$H$16:$H$17)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="3"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>占比(%)</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>占比(%)</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>占比(%)</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl/>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$C$24:$H$24</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$D$24,Sheet1!$F$24,Sheet1!$H$24)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-6473-485D-A16B-EA777EBC300A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454406008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454402728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454402728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454406008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3038475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2411131-6556-4A70-9FE7-4598AA6643FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,21 +2132,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H24" sqref="A16:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.08984375" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="62.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -646,7 +2180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -663,7 +2197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -680,7 +2214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -697,7 +2231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -714,7 +2248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -731,7 +2265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -748,7 +2282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -765,7 +2299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -782,7 +2316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -799,10 +2333,257 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8">
+        <v>81017</v>
+      </c>
+      <c r="D18" s="8">
+        <f>(C18/C24)*100</f>
+        <v>46.413307764394077</v>
+      </c>
+      <c r="E18" s="8">
+        <v>96734</v>
+      </c>
+      <c r="F18" s="8">
+        <f>(E18/E24)*100</f>
+        <v>64.310434566456351</v>
+      </c>
+      <c r="G18" s="8">
+        <v>57616</v>
+      </c>
+      <c r="H18" s="8">
+        <f>(G18/G24)*100</f>
+        <v>46.431291544365067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1014.54</v>
+      </c>
+      <c r="D19" s="8">
+        <f>(C19/C24)*100</f>
+        <v>0.581213291769485</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1108.27</v>
+      </c>
+      <c r="F19" s="8">
+        <f>(E19/E24)*100</f>
+        <v>0.73679704464786511</v>
+      </c>
+      <c r="G19" s="8">
+        <v>648.73</v>
+      </c>
+      <c r="H19" s="8">
+        <f>(G19/G24)*100</f>
+        <v>0.52279526110066565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12616</v>
+      </c>
+      <c r="D20" s="8">
+        <f>(C20/C24)*100</f>
+        <v>7.2274990527370271</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12616</v>
+      </c>
+      <c r="F20" s="8">
+        <f>(E20/E24)*100</f>
+        <v>8.3873347787790582</v>
+      </c>
+      <c r="G20" s="1">
+        <v>12616</v>
+      </c>
+      <c r="H20" s="8">
+        <f>(G20/G24)*100</f>
+        <v>10.166918462297099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7">
+        <v>57163</v>
+      </c>
+      <c r="D21" s="8">
+        <f>(C21/C24)*100</f>
+        <v>32.747743211129254</v>
+      </c>
+      <c r="E21" s="7">
+        <v>20068</v>
+      </c>
+      <c r="F21" s="8">
+        <f>(E21/E24)*100</f>
+        <v>13.341553134158064</v>
+      </c>
+      <c r="G21" s="7">
+        <v>35241</v>
+      </c>
+      <c r="H21" s="8">
+        <f>(G21/G24)*100</f>
+        <v>28.399839373003495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="8">
+        <v>13337</v>
+      </c>
+      <c r="D22" s="8">
+        <f>(C22/C24)*100</f>
+        <v>7.6405481029132627</v>
+      </c>
+      <c r="E22" s="8">
+        <v>10442</v>
+      </c>
+      <c r="F22" s="8">
+        <f>(E22/E24)*100</f>
+        <v>6.9420220164878668</v>
+      </c>
+      <c r="G22" s="8">
+        <v>9588</v>
+      </c>
+      <c r="H22" s="8">
+        <f>(G22/G24)*100</f>
+        <v>7.726729091352615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="8">
+        <v>9408</v>
+      </c>
+      <c r="D23" s="8">
+        <f>(C23/C24)*100</f>
+        <v>5.3896885770569076</v>
+      </c>
+      <c r="E23" s="8">
+        <v>9449</v>
+      </c>
+      <c r="F23" s="8">
+        <f>(E23/E24)*100</f>
+        <v>6.2818584594707767</v>
+      </c>
+      <c r="G23" s="8">
+        <v>8379</v>
+      </c>
+      <c r="H23" s="8">
+        <f>(G23/G24)*100</f>
+        <v>6.7524262678810549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="8">
+        <f>C18+C19+C21+C20+C22+C23</f>
+        <v>174555.53999999998</v>
+      </c>
+      <c r="D24" s="8">
+        <v>100</v>
+      </c>
+      <c r="E24" s="8">
+        <f>SUM(E18:E23)</f>
+        <v>150417.27000000002</v>
+      </c>
+      <c r="F24" s="8">
+        <v>100</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(G18:G23)</f>
+        <v>124088.73000000001</v>
+      </c>
+      <c r="H24" s="8">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/市民化成本.xlsx
+++ b/市民化成本.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D8324CE5-AEF7-4C69-934C-BD53D6DBD608}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C647AD6C-48C1-4A7C-9216-D124E394E3B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16160" windowHeight="8510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>作者</t>
   </si>
@@ -256,6 +256,73 @@
   </si>
   <si>
     <t>占比(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常住人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农民工总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出农民工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地农民工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同比增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,14 +395,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,7 +1298,890 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>常住人口城镇化率</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$52:$A$54</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$53:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>城镇人口</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>乡村</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$52:$B$54</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$53:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C15-4AEA-B854-BE665C095BDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>农民工数量变化</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$56:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>农民工总量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外出农民工</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>本地农民工</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0B9-45D5-A6C4-4844A0F6BE15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="459420320"/>
+        <c:axId val="459424584"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>同比增长</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$56:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>农民工总量</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外出农民工</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>本地农民工</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$56:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0B9-45D5-A6C4-4844A0F6BE15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="607785264"/>
+        <c:axId val="607790184"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="459420320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459424584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459424584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459420320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="607790184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607785264"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="607785264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="607790184"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1770,6 +2726,1040 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1803,6 +3793,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515E7EDC-4A68-4BAB-9D86-A70D89C2C821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C059281-409F-480D-8747-BEF087CF9B14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2132,10 +4194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H24" sqref="A16:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2163,7 +4225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="308" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -2214,7 +4276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2231,7 +4293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="196" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2248,7 +4310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="280" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2265,7 +4327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2282,7 +4344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2299,7 +4361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="294" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2316,7 +4378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="350" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2334,240 +4396,330 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>81017</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f>(C18/C24)*100</f>
         <v>46.413307764394077</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>96734</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f>(E18/E24)*100</f>
         <v>64.310434566456351</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>57616</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <f>(G18/G24)*100</f>
         <v>46.431291544365067</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1014.54</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f>(C19/C24)*100</f>
         <v>0.581213291769485</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>1108.27</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f>(E19/E24)*100</f>
         <v>0.73679704464786511</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>648.73</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f>(G19/G24)*100</f>
         <v>0.52279526110066565</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="1">
         <v>12616</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <f>(C20/C24)*100</f>
         <v>7.2274990527370271</v>
       </c>
       <c r="E20" s="1">
         <v>12616</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f>(E20/E24)*100</f>
         <v>8.3873347787790582</v>
       </c>
       <c r="G20" s="1">
         <v>12616</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <f>(G20/G24)*100</f>
         <v>10.166918462297099</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>57163</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f>(C21/C24)*100</f>
         <v>32.747743211129254</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>20068</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <f>(E21/E24)*100</f>
         <v>13.341553134158064</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>35241</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f>(G21/G24)*100</f>
         <v>28.399839373003495</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>13337</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <f>(C22/C24)*100</f>
         <v>7.6405481029132627</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>10442</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <f>(E22/E24)*100</f>
         <v>6.9420220164878668</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>9588</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <f>(G22/G24)*100</f>
         <v>7.726729091352615</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>9408</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <f>(C23/C24)*100</f>
         <v>5.3896885770569076</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>9449</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f>(E23/E24)*100</f>
         <v>6.2818584594707767</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>8379</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <f>(G23/G24)*100</f>
         <v>6.7524262678810549</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f>C18+C19+C21+C20+C22+C23</f>
         <v>174555.53999999998</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>100</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f>SUM(E18:E23)</f>
         <v>150417.27000000002</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>100</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <f>SUM(G18:G23)</f>
         <v>124088.73000000001</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <v>4885</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>2404</v>
+      </c>
+      <c r="C53">
+        <v>49.21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>2481</v>
+      </c>
+      <c r="C54">
+        <v>50.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>1276</v>
+      </c>
+      <c r="C56" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <v>922</v>
+      </c>
+      <c r="C57" s="9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D57">
+        <f>(B57/B56)*100</f>
+        <v>72.257053291536053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>354</v>
+      </c>
+      <c r="C58" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D58">
+        <f>(B58/B56)*100</f>
+        <v>27.742946708463951</v>
       </c>
     </row>
   </sheetData>
